--- a/дз модуль 4.xlsx
+++ b/дз модуль 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\тестирование\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\тестирование\ДЗ\myjob\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>passed</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +596,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -730,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,6 +863,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -854,27 +896,9 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1271,11 +1295,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1318,12 +1342,12 @@
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="16">
-        <f>COUNTIF(L$8:L$41,"failed")</f>
-        <v>0</v>
+        <f>COUNTIF(L$8:L$44,"failed")</f>
+        <v>3</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
-        <f>COUNTIF(N$8:N$53,"failed")</f>
+        <f>COUNTIF(N$8:N$52,"failed")</f>
         <v>0</v>
       </c>
       <c r="O1" s="11"/>
@@ -1363,12 +1387,12 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="17">
-        <f>COUNTIF(L$8:L$41,"passed")</f>
-        <v>0</v>
+        <f>COUNTIF(L$8:L$44,"passed")</f>
+        <v>25</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
-        <f>COUNTIF(N$8:N$41,"passed")</f>
+        <f>COUNTIF(N$8:N$40,"passed")</f>
         <v>0</v>
       </c>
       <c r="O2" s="11"/>
@@ -1491,43 +1515,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="52" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="44"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="44"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1537,29 +1561,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="44"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="44"/>
+      <c r="T7" s="52"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1585,7 +1609,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1621,7 +1647,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1655,7 +1683,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1691,9 +1721,11 @@
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="33"/>
+      <c r="L11" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="36"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="36"/>
@@ -1825,7 +1857,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1861,7 +1895,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1897,7 +1933,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="33" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1933,7 +1971,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -1971,7 +2011,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2007,7 +2049,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2042,7 +2086,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2078,7 +2124,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2114,7 +2162,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -2146,7 +2196,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -2184,7 +2236,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -2220,7 +2274,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="20"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -2256,7 +2312,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -2292,7 +2350,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2328,7 +2388,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2360,7 +2422,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -2396,7 +2460,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -2432,7 +2498,9 @@
       <c r="I29" s="21"/>
       <c r="J29" s="20"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11"/>
@@ -2470,7 +2538,9 @@
       <c r="I30" s="21"/>
       <c r="J30" s="20"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="11"/>
@@ -2506,7 +2576,9 @@
       <c r="I31" s="21"/>
       <c r="J31" s="20"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="11"/>
@@ -2542,7 +2614,9 @@
       <c r="I32" s="21"/>
       <c r="J32" s="20"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="11"/>
@@ -2578,7 +2652,9 @@
       <c r="I33" s="21"/>
       <c r="J33" s="20"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="6"/>
       <c r="O33" s="11"/>
@@ -2616,7 +2692,9 @@
       <c r="I34" s="21"/>
       <c r="J34" s="20"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
@@ -2654,7 +2732,9 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -2836,7 +2916,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="6"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="11"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="11"/>
@@ -2867,7 +2947,7 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
@@ -2900,7 +2980,7 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
@@ -2933,9 +3013,9 @@
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
@@ -2960,7 +3040,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2987,7 +3067,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3015,7 +3095,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3269,7 +3349,6 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3285,6 +3364,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="1"/>
+      <c r="L57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -3294,6 +3374,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="1"/>
+      <c r="L58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -3302,6 +3383,7 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26">
+      <c r="L59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26">
@@ -3309,12 +3391,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3322,12 +3398,18 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N10 L8:L10 R8:R10 P8:P10 T8:T10 L12:L41 R12:R41 P12:P41 T12:T41 N12:N41">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R8:R10 P8:P10 T8:T10 L15:L44 R12:R41 P12:P41 T12:T41 N8:N40 L8:L13">
       <formula1>Result</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
+    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
